--- a/Template POP Diskon.xlsx
+++ b/Template POP Diskon.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Programming\Web\pop-maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pindahan\Jalal\Programming\WEB\Mail Merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC712D-6161-4660-AD7E-C1C56C88EEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC4982-DE19-49AE-9D34-AF1085AEDD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="14">
   <si>
     <t>KODE</t>
   </si>
@@ -64,6 +56,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>CATATAN</t>
+  </si>
+  <si>
+    <t>PRODUK DENGAN TANDA KHUSUS</t>
   </si>
 </sst>
 </file>
@@ -138,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -149,18 +147,14 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -469,24 +463,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,321 +506,273 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>123456789</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="F2" t="str">
         <f>LEFT(B2, FIND(" ", B2&amp; " ") - 1)</f>
         <v>MAKUKU</v>
       </c>
-      <c r="G2" s="6" t="str">
+      <c r="G2" t="str">
         <f>TRIM(LEFT(MID(B2, FIND(" ", B2) + 1, LEN(B2) - FIND(" ", B2)), FIND("×", SUBSTITUTE(MID(B2, FIND(" ", B2) + 1, LEN(B2) - FIND(" ", B2)), " ", "×", LEN(MID(B2, FIND(" ", B2) + 1, LEN(B2) - FIND(" ", B2))) - LEN(SUBSTITUTE(MID(B2, FIND(" ", B2) + 1, LEN(B2) - FIND(" ", B2)), " ", "")))) - 1))</f>
         <v>BRONZE PANTS</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="H2" t="str">
         <f>TRIM(RIGHT(SUBSTITUTE(B2, " ", REPT(" ", 100)),100))</f>
         <v>S56</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>11</v>
       </c>
     </row>
